--- a/500all/speech_level/speeches_CHRG-114hhrg22467.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22467.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400626</t>
   </si>
   <si>
-    <t>Tom Price</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Price. This hearing will come to order. We want to welcome everybody to the Budget Committee and our hearing entitled Restoring the Trust for Families and Working-Age Americans. For over a year, the House Budget Committee has been engaged in an initiative called Restoring the Trust for All Generations. Today's hearing is the fourth in this series of hearings this committee has held to advance this initiative.    Restoring the Trust is an effort to raise awareness among both our colleagues in Congress and probably, most importantly, the American people that we represent about the serious fiscal and policy challenges facing our Nation's health, retirement, and economic security programs.    These are programs that are funded automatically without any annual appropriation or necessarily any congressional oversight. They are what is known in this town as ``mandatory spending.'' It means that the money continues to be spent and is increasing and will continue to increase until Congress and the President agree to reform the programs.    The unchecked growth and spending in this area, whether it is Medicare or Medicaid, or Social Security, or numerous Federal housing, education, and safety net programs is eating up a larger and larger portion of the Federal budget. It is crowding out other government functions, other national priorities, and contributing substantially to the budgetary imbalance that has our national debt over $19 trillion and climbing. As we have discussed in this committee previously, in addition to the fiscal challenges, we know that these programs are not necessarily serving the beneficiaries all that well.    At the same time, and perhaps less appreciated, is the fact that many of these programs create substantial distortions and foster perverse incentives in the private market in areas like education, health care, and housing. Those distortions drive up the cost of goods and services for all Americans.    For many working age Americans and their families, they may have no direct interaction with these automatic spending programs, but these programs and government policies generally are increasing demand for services while simultaneously limiting supply, and results in prices that are outpacing wages, and that hits the middle class particularly hard.    In today's housing market, affordability is the missing element. The fundamental problem is a supply/demand imbalance that works against families struggling to afford the mortgage or rent as home values appreciate faster than wages and inflation. The average family's housing cost rose 63.3 percent between 1997 and 2015. According to the U.S. Census Bureau, home ownership rates are at their lowest level in 50 years and currently equal the same level of 62.9 percent that was achieved in 1965.    In higher education, evidence points to Federal student aid distorting demand, and it has been linked to rapid rises and increases in tuition. A 2015 study conducted by the Federal Reserve Bank of New York reports a passthrough effect on college tuition from increased Federal student aid. For every additional dollar in subsidized loans, tuition increases by an estimated $0.65, and for every additional dollar in Pell Grants, tuition increases by $0.55.    More generally, our current education system contributes to higher costs by stifling innovation; innovation that could offer flexible, customized, and more affordable education experiences catered to the lives of working students with families who are seeking to realize their full academic potential.    Washington's current approach to health care clearly has, under the assumption of knowing what is best for patients across America, has restricted them to health programs that are an unsustainable path while driving up costs. According to the Kaiser Family Foundation, the average premium in America has increased 61 percent in the last decade. Similarly, deductibles have increased more than 250 percent, meaning increased out-of-pocket expenses for individuals and families. Thanks to heavy-handed governmental intervention in the Nation's health care, costs for families continue to rise without gains in quality or value.    Furthermore, competition and innovation are stifled, and providers spend nearly as twice as much time completing paperwork as they do caring for patients, lending itself to a paper-centered system as opposed to patient-centered healthcare delivery system. In short, the status quo is not working. However, positive solutions can be discovered in the private sector and successful government programs. We should work to advance free market policies that will foster competition. In order to have a well-functioning marketplace, it is necessary to allow entrepreneurs to meet the demands of consumers, creating better products for lower prices through innovation. In short, allowing America to work.    To provide views on these issues of critical importance to so many Americans, we have a wonderful panel of witnesses with us today. We want to welcome each and every one of you. Edward Pinto, the resident fellow and co-director of the International Center on Housing Risk at the American Enterprise Institute; Dr. Keith Smith, managing partner and co-founder of the Surgery Center of Oklahoma; Dr. William Spriggs, chief economist at the AFL-CIO; and Dr. Thomas Lindsay, co-director of the Center for Higher Education at the Texas Public Policy Foundation.    I want to thank you all for being here and for being willing to share your insights and your firsthand knowledge about how our Nation's automatic spending programs are impacting the lives and livelihoods of families and working age Americans. We look forward to your testimony, and I am pleased to recognize the gentleman from Kentucky, Mr. Yarmuth.</t>
   </si>
   <si>
     <t>412211</t>
   </si>
   <si>
-    <t>John A. Yarmuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmuth. Thank you very much, Mr. Chairman. Good timing on your part. Welcome to all the witnesses. We look forward to hearing from you. Two weeks ago, we had a discussion on the future of Medicaid and Medicare. There was widespread agreement on the problem that we have to find long-term solutions to providing quality care while reducing unnecessary spending. We had very different views on how to solve that problem, but at least we started from the same place.    Today, we start from very different places. This is not a hearing on improving the way the Federal Government helps most American families obtain quality housing, health care, and education for American families while reducing unnecessary spending. This is about a hearing about whether the Federal Government can have any productive role, or make any sound investment, in these areas.    Some of the suggested solutions are extreme even for this Congress, and I would guess even too extreme for some of my colleagues on the other side of the aisle. We will have this debate today and discuss think tank theories about the economy and free market principles. As an exercise, that is fine, but we already know what works in the real world. We know the investments in housing, health care, and education help American families build better futures while spurring economic growth for our Nation. It is not academic theory. It is the reality of the last 7 years. Just look at the facts.    President Obama inherited the weakest economy since the Great Depression. Hundreds of thousands of jobs were being lost each month, and millions of American families rightly feared for their economic future, but through swift action and smart investment, we have turned that around. We are now in the fourth longest economic expansion in American history, with 15 million new private sector jobs and an unemployment rate that has been cut in half.    Last week, new Census Bureau data proved that we are still on the right path. In 2015, median real household incomes rose by the fastest rate on record with the highest growth for those lower on the income scale. The poverty rate dropped significantly and the percentage of Americans with healthcare coverage is now at its highest rate ever. This is great progress, but there is so much more work to be done. Our economy still largely benefits the wealthy few at the expense of the middle class and those struggling to get by.    I would suggest that we attack these problems by building on the successes of the last 7 years and continue providing better opportunities to American families and workers. Let's invest in infrastructure, education, and R&amp;D to create good, high paying jobs and boost the productive capacity of American workers for years to come. Let's give American families help now by raising the minimum wage, increasing access to affordable childcare, providing paid sick leave, and family and medical leave, and guaranteeing a secure retirement.    Let's make their worries our priorities. That is what the American people want. They do not expect us to agree on everything, but on minimum, they want us to try and find common ground on ways the Federal Government can make their lives better. History proves the Federal Government has an enormous potential to make lives better. I hope going forward we can agree to start from there. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Pinto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pinto. Thank you, Chairman Price and Ranking Member Yarmuth. Thank you for the opportunity to testify today. The committee's goal of restoring trust for all generations is to be applauded; however, as the committee has observed, it is regrettable that government programs developed over 8 decades to meet worthy aims are now failing the very people they were intended to serve.    My research has found that the same is to be true with respect to decades of ill-conceived housing programs. In most cases, these policies increase housing demand, but do little or nothing about supply. When supply is increased, it drives up prices, layers the subsidies that are used, and a host of unintended consequences result.    First and foremost, it yields higher prices and higher rents particularly for low income or minority households, the very ones these programs were designed to assist. Today's subsidy laden, government-centric, finance system is something I called an ``economics-free zone.'' I call it that because it is indifferent to supply and demand. As a result, housing has become less, not more, affordable and less, not more, accessible.    Turning to the home loan market, 60 years of affordable housing policies have failed to achieve its two primary goals: increasing home ownership and achieving wealth accumulation for low and middle income borrowers. The chairman has already noted that today's home ownership rate of 62.9 percent is the precise same as 1965, and not much higher than 1960 or 1957.    Further, we have not been successful at building wealth for the very groups these policies were aimed to help. This is primarily due to excessive leverage, namely low down payments, 30-year mortgages that have a lot of debt leverage in terms of income. Home buyers have become addicted to debt very much like the Federal Government.    Federal lending policies rely on higher level debt to finance home buying by households with limited financial means. The debt is used to finance a single asset, one that is highly illiquid and has volatile prices and large transaction costs. This means they start with little equity and build more equity very slowly.    It gives them little protection against life's vicissitudes and volatile home prices, and the debt-inflated prices themselves create price volatility, and we just went through a cycle of that--I would only point out that in 1954, interest rates and financing costs were about the same as today, 4.5 percent including the mortgage insurance premium, yet the size of homes have doubled, house prices have gone up much faster than incomes. The only way that happens is to increase leverage, and FHA has done that with a vengeance.    The government policies create debt and fuel wealth, not wealth supported by real income growth. The result, we saw, was catastrophic, and it was due to these low down payment loans that are prone to default. Before this expansion leverage, FHA's foreclosure rate just about rounded to zero, and yet the home ownership rate was, as I said, about the same as today. Over the period of 1975 to 2013, this is after the leverage started getting added to the housing finance system, FHA borrowers would suffer 3.4 million foreclosures.    There were 3.4 million claims to FHA. Before that, these numbers literally were very low. One in eight such buyers suffered that result, and it is even higher in low income and minority households. The entire market since 1975 has experienced eleven to twelve million foreclosures. As troubling, the reliance of government loan policy on excessive household debt crowds out the ability to save for one's retirement and pay for one's children's post-secondary education.    As I said, total debt to income ratios have risen. Today, 1 in 6 FHA buyers have a total debt income ration, pre-tax, of 50 percent or more. We all know how this works. You are buying a home. You are told you can get approved for a loan of this amount based on your income. They are all calculated on a pre-tax basis.    The focus is not on how much you need to put forward on retirement. Not what your children are going to need to go to post-secondary education 20 years from now. It is focused on what is the maximum amount of house you can buy today. No consideration is given to these other items, and I have two charts included that describe that.    As you craft solutions, please keep these facts in mind. Wealth is the antidote for poverty. We have focused on redistribution, not wealth. Wealth equals one's accumulated savings for 50 years. Government policies have ignored wealth, focusing on income transfers. The racial wealth gap is 3 times larger than the racial income gap, and middle income and working class families need a straight broad highway to wealth building. I have laid out alternatives in my written testimony, and I submit those to your consideration. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you very much. Dr. Smith, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you. Thanks for having me. While everyone agrees there is something terribly wrong with the healthcare delivery system----</t>
   </si>
   <si>
@@ -109,18 +97,12 @@
     <t xml:space="preserve">    Chairman Price. Dr. Spriggs, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Spriggs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Spriggs. Thank you, Chairman Price, and thank you, Ranking Member Yarmuth for this opportunity. To restore the trust of the American people, we must restore what the government does. From 1946 to 1979, the wages of Americans grew with their productivity. Income gains were roughly equally shared by each quintile of the income distribution.    That was the result of deliberate Federal policies to invest in the American people, to invest in America, and to aim those policies at shared prosperity. The American people want you to invest in them. The best investment anyone can make is in the American people and in American children in particular. It will always, always pay to bet on American children. There are lots of key programs that the government put in place that made this happen.    We invested in our GIs returning from WWII. We gave them opportunity for higher education and for home ownership. That transformed America. It gave us the middle class. We learned, when they were puny like my dad when he volunteered before WWII, they were underweight, young men, that we needed to invest in feeding our children, and the national student lunch program is a huge investment in making sure that our children are healthy. That changed everything.    We invested in making sure that the labor market was fair by having hands-off and keeping the National Labor Relations Board apolitical so that our unions could grow and our workers could fairly bargain over the increase in productivity, and each administration up to 1979 fought to raise the minimum wage, and it was a bipartisan vote. The majority of Republicans and Democrats voted to raise the minimum wage. It was not a partisan issue.    Under Republican President Dwight Eisenhower, in response to Sputnik, he got the Democratic Senate, in less than one year in response to Sputnik, to put in place the National Student Loan Program, and that launched not only the scientists who got us the Internet, got us personal computers, but it also meant that we had teachers to train those people, and President Eisenhower invested in America.    He built the Interstate Highway System, which transformed America and gave us higher productivity. President Johnson added by adding Head Start, a program which pays for itself in the gains of the earnings of children who go through that program. Medicare and Medicaid. Young women who have had access to Medicaid when they were young have higher earnings, have more education, and the young people who have had access to it end up with higher earnings paying back and higher taxes, the way that we get to afford these programs.    Now, what economists are finding out is that the reason these programs worked is that inequality hurts growth. Inequality hurts growth for a number of reasons, but one of them, the IMF found, was that if income growth goes to the top 20 percent, you really slow growth. In the United States the top 20 percent control over half the income. They spend over, well over, a half of the money on education, well over a half of the money spent on housing. That distorts prices. In a free market, it is $1, one vote, not one person, one vote, and suppliers will always chase the dollars. That makes tuitions go up. That makes housing prices go up. Umbrellas do not cause rain.    We have the government having to chase these price tilts in order to make sure that everyone can benefit from them. The one sure way we have learned from the OECD studies for why inequality hurts growth, is because it hurts human capital formation. At high levels of inequality, the bottom 40 percent simply do not get enough education. Invest in Americans. That is how you make the economy grow and get their trust back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you, Dr. Spriggs. Dr. Lindsay, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Lindsay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lindsay. Thank you, Mr. Chairman, members of the committee. I appreciate your extending me the opportunity to present my research on the question of how we might increase opportunity for everyday Americans through higher education. I am encouraged by the growing bipartisan consensus on the need for higher education reform, and my research conducted on this question, points to the need to promote greater innovation and higher education delivery through fostering greater competition among higher education providers.    This country embarked long ago on a very well-intentioned set of Federal policies aimed at increasing college access for which all are to be commended for their earnestness. Nevertheless, as with all policies, there have been unintended consequences. The work ahead of us must consist in no small part in moderating some of these policies in order to better align higher education demand with supply as well as to better balance student access with success. The need to improve our Federal policies is seen by the following facts.    Over the past quarter century, average college tuition nationwide has jumped 440 percent, nearly 4 times the rate of the CPI over the same period. To attempt to pay for these historic increases, students and their parents have amassed historic debt. At roughly $1.3 trillion, student loan debt now exceeds even national credit card debt for the first time in our history, and this in a country fairly addicted to credit cards. The problem here is not a lack of government spending. The Federal Government has been very generous. In fact, the United States spends twice as much on higher education as the average OECD nation. This is not a money problem. Rather, when we look at the students today who graduate, and as I said, only half the students who enter college today graduate.    Of those who do graduate, 36 percent we know from studies, show little to no increase in critical thinking and writing skills, those skills that a degree is meant to signify. Moreover, when it comes to student loan debt and defaults, 70 percent of student loan defaults come from those who do not finish college. Low graduation rates increase defaults. Even sadder today, a smaller percentage of recent college graduates comes from the bottom 25 percent of income distribution than was the case in 1970, when these generous Federal programs began.    So, from these points, what we see is this, half the students who attend college never graduate. Of the half who do, only 64 percent attain any significant learning. What that means is that today, only 32 percent of students who enter college both graduate and do so with the learning that a college degree is meant to signify, meaning the odds are 2 to 1 that you will not get both. That is a scandal, but there is good news. There are solutions available to us.    In Texas, in 2014, we launched the Affordable Baccalaureate Degree Program. It can cost half as much as a traditional degree. You can finish it sometimes twice as quickly even if you come into college with no credit. You can get a degree in 3 years for between $13,000 and $15,000. Clearly, you cannot do this with all degrees. You cannot do this with a biology degree or a philosophy degree or engineering, but you can do it with applied degrees, and that is what these programs aim at. And there is something that we all need to take account of.    When we talk about college today and what we can do to help college students, we think of the four-year residential campus where students are attending full time. That is no longer the case. Only 1 in 5 college students fits that description. The new majority of students seeking some sort of education after high school, be it a two-year degree, a four-year degree, or a certificate, are non-traditional students, meaning they are over twenty-five, and/or working full time, and/or with families of their own to support.    The traditional models that have worked for us in the past simply cannot address their needs. There are other recommendations I would like to make, and I would be happy to offer them during Q&amp;A. They are contained in my written statement. Thank you very much.</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>400262</t>
   </si>
   <si>
-    <t>Jim McDermott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McDermott. Thank you, Mr. Chairman, Mr. Yarmuth. Dr. Smith, I am fascinated by your testimony, as like Dr. Price, I am also a physician. How big an emergency room do you have at your surgical center?</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>400077</t>
   </si>
   <si>
-    <t>Tom Cole</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cole. Thank you, Mr. Chairman. I want to thank you very much for the hearing. This is very fascinating stuff, and I want to thank our witnesses for their presentation. Dr. Smith, as a fellow Oklahoman, I am very impressed and very pleased with your business model. If I am correct, you do not take any Federal payment for any of the services. Is that correct?</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
     <t xml:space="preserve">    Mr. Lindsay. Yes, sir. When you look at the numbers as the role of the Federal Government is increased, the contribution that States can make is decreased not only because the Federal Government has taken it over, but also because the States have big items in their budgets such as Medicaid. So, here you have two Federal policies dueling with each other.</t>
   </si>
   <si>
-    <t>Yarmouth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmouth. Excuse me, member, but the causation runs the other way. It is the state----</t>
   </si>
   <si>
@@ -313,9 +286,6 @@
     <t>400309</t>
   </si>
   <si>
-    <t>Bill Pascrell, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pascrell. Thank you, Mr. Chairman. We have heard our witnesses and some of our colleagues that government is the problem most of the time. That the solution to best aid working families is to tear it down. The government that is. Well, what happens when we leave private industries to set the rules of the road? Are they really better at investing in the economy and in the working men and women of our society? Do they, left to their own profit-seeking motives, protect the vulnerable? And there are many vulnerables here. Not just people who are incapacitated. Vulnerable means a lot of things, a lot of groups.    We used to have less regulated capitalism in the early part of the 20th century and we saw children working in factories and men, women, and children alike losing limbs and lives in hazardous workplaces. And let me interrupt what I am saying here to say that the comments to me about higher education are something to be considered. And housing, something to be considered. All of you, I believe--I have read your documentation--all of you make good, good suggestions and some of them are debatable. That is what democracy is when we, you know, practice it. But you will have to admit that the progressive movement ushered in child labor laws.    And somebody did not wake up one morning and say, ``Let's have child labor laws.'' There was a reason for them and it built up, and it built up. And the best changes came when there was bipartisan support. The best changes. Labor unions advocated for an 8 hour workday. So, I do not know if it is a good idea if we leave everything to the private sector to decide what is good and what is bad.    And this thing about regulations is the most mythical part of the center of destroying the American government. It is mythical when you look back at even the number of pages that are set aside for human regulation 20 years ago and this President of the United States who has been accused of everything but the plague. That is probably coming. We created government agencies like the FDA to regulate our food and meat production. Food safety is a major issue. When we talk about trade deals it is a big, big issue.    Today, we have workplace safety laws and agencies like OSHA to inspect for hazards on the job. You do not have to go any further than look at the regulations that we have been--oh my god, at the banking industry. When the guy that is getting a bonus of $120 million is standing up and saying, ``Well, we got rid of those 5200 clerks in that bank and that is going to solve everything.''    I put money into that bank. I got money in that bank. I am going to take it out. You want citizen advocacy, we will have it. I do not care what area you are talking about. Health care, financial, workplace. Prior to Medicare, about half of seniors did not have health insurance. In my district, now with Affordable Care Act we are down fairly low, 9 to 10 percent. I am sure it is the same with many people around here.    So, the government has no part in anything. The government has no part in helping the police and fire. That is a local issue. Without social security, 44 percent of our seniors would be living in poverty. And yet, we want to now privatize. We want to distort what social security was all about. Thankfully, today because of that program only nine percent do live in poverty. Seniors. That is too many. Government--the people's representatives did that. Not a corporation, not an economic theory, an honest to goodness government.</t>
   </si>
   <si>
@@ -331,9 +301,6 @@
     <t>412627</t>
   </si>
   <si>
-    <t>Rod Blum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blum. I would like to yield my time back to the chairman.</t>
   </si>
   <si>
@@ -343,9 +310,6 @@
     <t>412605</t>
   </si>
   <si>
-    <t>Dave Brat</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brat. Yeah, I was a professor for the last 18 years before I got this new job and so I would just kind of like to go down the line. I was very interested in some of the education comments and what the kids are actually getting when they are done at the end of the road from everybody. There is a lot of talk on the money. Our chairman showed some of the inflation statistics, et cetera. We are investing $12,000, $13,000, $14,000 per kid for 13 years right now, currently.    I was just in a jail 2 days ago with heroin addicts, 40, and they were all telling me what they want in terms of education and it was shocking. They want a moral component. They said, ``No counselor ever spent any time with me as a person.'' They said, ``Everybody is talking about tests and isosceles triangles and whatever, and no one gave me any hope as a human being. What am I aiming at? What is my career? What is morally good? What is a good life?'' And, so I am just curious on your comments.    I follow--Deirdre McCloskey is one of my economists here. She has got a six-volume set that shows that modern economic growth began in about 1700. Why then, when all human history made $500 bucks a year? She said that, ``That is when moral language changed such that we started calling the businessman and businesswoman morally good.''    And so, I am just curious on if you have got any comments. Just real quickly going down at the end of K through 12, kids do not know what a business is, right? I mean, I taught freshman in college. They do not know what a revenue is from a cost from a price from a whatever. And a lot of them will not go to college and they are stuck.    So, first of all, the business aspect, are we teaching is business morally good or morally bad? Are we aiming our kids at something they think is morally bad? And then the moral component. Any comments you have? Just 30 seconds each or a minute each would be great. Yes, Dr. Pinto.</t>
   </si>
   <si>
@@ -385,9 +349,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Sure, thank you, Mr. Chairman. So, I have some questions for Dr. Lindsay, but I have to admit I am going to go real quick first too, if I can, Dr. Smith. Your concept intrigued me and I did find your website right away, by the way. The prices, it took one simple search. So, let me go back to--Mr. McDermott was talking about examples.    So, I worked at an auto parts manufacturer and my job got sent to Mexico. I have been out of work for a little while. I have got a torn rotator cuff. I call you guys up. But if I understand right from the other question, you do not take Medicaid or Medicare? So how does that individual access, if they do not have the savings to do that, how do they access your model?</t>
   </si>
   <si>
@@ -457,9 +418,6 @@
     <t xml:space="preserve">    Chairman Price. Gentleman yields back. Mr. Stanford, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stanford. Thank you, Chairman. Okay. I guess first question would be on housing so I am going to come to you. Andres Duany is a land planner/architect. He has done some interesting thing in this movement called new urbanism, and its basic premise is, ``Much of our zoning is based on the industrial age and revolution. We are going to put the factory over here and the houses over here and we separate everything.'' And yet that is not how our country developed, right? If you look at places like Charleston or Savannah, it was all sort of thrown in there together and oftentimes you lived above where you worked.    And why do we not go a bit more back to that? You had a granny flat in the back. Grandmom came to live in the back. When grandmom died you could rent the house, the little unit out. And this idea of mixed use. Are there two municipalities out there that from the standpoint of code, because much of it is driven by zoning, the government dictates in essence higher pricing on housing? Are there two municipalities that you would recommend for me to do further study on places that have got it right in your view?</t>
   </si>
   <si>
@@ -493,9 +451,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you Mr. Chairman and thanks everyone for being here today to talk about how we lift the American workers and American families. I think it is important to reflect that this country has made it through a very remarkable time. We have bounced back from the worst recession in our lifetimes thanks to American workers and a lot of the recovery act policies that invested in American families and small businesses. Just think about this, it was less than 10 years ago that people were losing their homes. They were losing their jobs.    The unemployment rate in Florida topped out at a little over 11 percent. We are already down at 4.7 percent in our unemployment rate in Florida where we have a real boom and bust cycle. It hit us particularly hard, but here all across the country the unemployment rate is down to 4.9 percent. We have more than cut the unemployment rate in half. We have created over 15 million private sector jobs just since 2010.    Then think about, did you ever think you would see gas prices at $2 a gallon for so long? I mean, in the Tampa Bay area I represent, we have been hovering at a little over $2 per gallon now for many months at the same time that we have been able to double our clean energy production.    The Affordable Care Act has been a godsend for working families, and in Florida we have a very competitive marketplace now with healthcare.gov. 1.7 million Floridians now have access to the health insurance that they did not have before because for too long a time we allowed companies to discriminate against people who had preexisting conditions like asthma or diabetes or a cancer diagnosis; 1.7 million Floridians. So, the uninsured rate now, we know is at its lowest level in the history of the country. And most people still have private insurance through their employer.    In Florida, 60 percent do, and their premiums and co-pays and cost increases are now at the lowest level that they have been in many years so that is good news. And, if you have been fortunate enough to have money in the stock market over the past decade you have done very well. The stock market has practically tripled.    But, we still have this problem with how we increase wages and income for families. The good news was the Census Bureau said last week real median household incomes grew by 5.2 percent over the last year. The number of people in poverty fell by 3.5 million. That was the largest one-year drop since 1968. But we have got to do so much more. We have got to build on this success.    And Dr. Spriggs, I love it that you say we have got to invest in the American people. We have got to invest in this country. And there are a couple of things that just really stick out. We have got to improve our infrastructure in this country. And I wonder if you could comment on that, Dr. Spriggs. I look back at home we have so many needs in our roadways, our water systems, our waste water systems. Interest rates are low. Would not this be a good time to invest in our communities back home and create jobs?</t>
   </si>
   <si>
@@ -517,9 +472,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman. Got a couple of questions then I want to make some comments. It has been mentioned how well the economy has been doing. I would just like to point out that under this administration the economy will have averaged 1.55 percent growth through two terms and it will be the first administration, I believe, in the history of the United States which there was never even one quarter in which the economy grew at least three percent. One out of every six working age males are unemployed. And in terms of the unemployment rate, I do not think they count people who simply quit looking for work. And we could go on.    Mr. Spriggs mentioned infrastructure. We passed an $860-something billion stimulus bill back early in the first term of this administration. And various reports have indicated just over 3 percent of that actually went to infrastructure when it was supposed to be shovel-ready jobs. So we had an opportunity to do something about infrastructure but chose to spend the money elsewhere. So, I take some exception to that. And then we were talking about Head Start.    The government's own studies indicated that Head Start, by the time kids reach the fourth grade show no impact. And regard overall to education, one of the issues, Dr. Lindsay, that I have with what is going on in higher education is the amount of money that States and parents and students are having to spend on remedial education. I think it is about 30 percent of the students who enter college today are having to take remedial courses and that is basically taking a high school course but paying for it at college cost. You want to comment on that?</t>
   </si>
   <si>
@@ -592,9 +544,6 @@
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman. I thought Mr. Pascrell made the best point of the day in defense of the free market when he said, ``I have got money in that bank. I am going to take it out.'' I mean, is that not the ultimate consumer protection? The ability to say, ``No, your prices are too high. No, your service is not adequate. No, I will take my business down the street to somebody who can provide me a better service at a lower cost.''    Is that not how we punish bad actors in a free market? And is that not the ultimate punishment that they go out of business? And we reward good actors by giving them our business. Now, Dr. Smith, your patients choose you. They do not have to go to you for services, correct?</t>
   </si>
   <si>
@@ -667,9 +616,6 @@
     <t>412606</t>
   </si>
   <si>
-    <t>Donald Norcross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Mr. Chairman. I got to say, this is probably the most entertaining committee hearing I have been since sitting on Budget Committee. Sort of remarkable. And I would like to thank all of those testifying today. But I hear, live where you work. We are talking about Potterville here again. I think the only place you get to live where you work for free is in Congress when you live in your office. But that is a different story. I guess we will not go into that.    I have to disagree with my colleague who we got sworn in together, Congressman Brat, when he says, ``If you do not go to college you are stuck.'' No you are not.    You have choices. Those who go to serve our military, service to our country, is of great value. Those who go to the other four-year college called an apprenticeship, that is great value. You know, in this country versus Europe and many others it is somehow if you do not go to college you are less than. No they are not. They are great people living a great dream whether they were coal miners or truck drivers. That is exactly quality, accessible, affordable, flexible college.    What I want to talk about what we are seeing here and hearing here today. It literally is a tale of two countries. I think the data speaks for itself. We can interpret it very differently and I agree with my colleagues on this side of the aisle that the facts are irrefutable and you are not changing those. You heard it mentioned where we were a half a dozen years ago and where we are today.    There is a recovery. It is who is enjoying it or who can enjoy it? The disparity in wages has grown exponentially from those who are working with their hands and those who are running the companies. Fifteen million jobs, that is pretty good. But those are jobs that are much less than when they started, and that tends to be one of the concerns that I am dealing with middle class.    So, when they make a choice to do to college can they afford to send their kids there or are they saddled with a quarter of a million dollars of debt? I think we get back to a much more flexible system that addresses the real core issues of what is going on is probably the most important thing that we can do. But, when it comes to the comments, Dr. Smith, it is an interesting model. I just wanted to ask one quick question. You post the prices. Do you have specials like twins today get half price off? Do you do things like that?</t>
   </si>
   <si>
@@ -691,9 +637,6 @@
     <t>412416</t>
   </si>
   <si>
-    <t>Rob Woodall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman. Thank you for holding the hearing. Mr. Yarmuth mentioned in passing that he was not sure we reestablished any trust here today. I came in late, and so I may have missed a more cynical part of this panel. But I have got to tell you, when you, Dr. Lindsay, are focused on trying to get folks not just with access to education, but access to education that benefits them long term. When you, Dr. Spriggs are trying to tie workers' wages to their productivity and life folks up out of poverty.    When Dr. Smith has taken something that is impossible to understand and impossible to afford and trying to deal with both of those issues at the same time. And when Mr. Pinto is telling folks that maybe we have been complicit in turning something that was supposed to be a wonderful opportunity into a terrible burden, that is exactly what folks back home want us to be talking about and I cannot believe that there is not just a little bit of agreement here, but a lot of agreement. That is what I want to focus my question on. Dr. Lindsay, I agree with you about the Stafford loan program. My question is, who on the left would work with us?    When I go into a high school today and say, ``Who wants all the free money you can borrow and a degree in art history? Or who wants a co-op program, a work-study program, you want to graduate with employer experience and no debt?'' Who on the left would work with us to redirect these Federal incentives to putting real people in real jobs?</t>
   </si>
   <si>
@@ -721,9 +664,6 @@
     <t>400352</t>
   </si>
   <si>
-    <t>Tim Ryan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ryan. Thank you, Mr. Chairman. Several of the issues you talked about I would be happy to work with you on. I think that would be great and I will even come to your district and spend time with you because I am sure that would benefit you politically as well for you to be with me in your district. Mr. Smith, before we get into the deep policy, as a member from Ohio and an Ohio State football fan, I want to say I am sorry about your loss on Saturday. I am sorry Mr. Cole is not here to share with him the Ohio State-Oklahoma game.    Several questions I have because I really think that there are some issues here that we should be able to hammer out. I think that every member--and when I was not here I was watching in the back--has made some really good points on college costs, making sure the Pell grants that we send down to the schools actually hit home and actually reverberate in the household and increase or lessen the dependence that families are spending on some of these programs. The student loan issue is a huge one. And I think there does need to be some controls on our colleges with us just sending them money and tuition keeps going up, and I will say it as a Democrat, the bureaucracy of the universities growing in a way that is not as focused.    And maybe we do need to look at how schools in States can focus on specialties. I want to give Dr. Spriggs a minute to talk about the higher education costs because I know that it has been brought up and I want to give you a minute to just kind of express your opinion about what has been stated with the panel so far.</t>
   </si>
   <si>
@@ -763,9 +703,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Okay, first, Dr. Smith, before I got here, you apparently said the two States that flow into your clinic from other places are Alaska and Wisconsin. I was just wondering why Wisconsin? What do you attribute that to?</t>
   </si>
   <si>
@@ -799,9 +736,6 @@
     <t>400661</t>
   </si>
   <si>
-    <t>Gwen Moore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much Mr. Chairman. Now just let me say upfront that I really regret that other responsibilities took me away from attending the entire meeting, and so I do ask the distinguished panel to forgive me if my questions or comments seem to be a little off base from just the lack of opportunity to have heard you all the way through. I just want to be clear. I do not have my bifocals on, so it is hard to see, but you are Attorney Pinto, right?</t>
   </si>
   <si>
@@ -869,9 +803,6 @@
   </si>
   <si>
     <t>412426</t>
-  </si>
-  <si>
-    <t>Todd Rokita</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the Chairman. Mr. Pinto, would you like to continue on? Anything else you want to add to that response?</t>
@@ -1321,11 +1252,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1345,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1373,11 +1300,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1397,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1425,11 +1348,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1449,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1477,11 +1396,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1501,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1529,11 +1444,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1553,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1581,11 +1492,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1605,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1633,11 +1540,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1657,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1685,11 +1588,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1709,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1737,11 +1636,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1761,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1789,11 +1684,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1813,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1841,11 +1732,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1865,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1893,11 +1780,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1917,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1945,11 +1828,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1969,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1997,11 +1876,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2021,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2049,11 +1924,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2073,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2099,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2125,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2151,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2177,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2203,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2229,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>49</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2255,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2281,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2307,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2335,11 +2188,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2359,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2385,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2411,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2437,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2463,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2489,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2515,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2541,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2567,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2593,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2619,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2645,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2671,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2697,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2723,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2749,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2775,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2801,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2829,11 +2644,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2853,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2879,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2905,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2931,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2957,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2983,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3009,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3035,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3061,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3087,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3113,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3139,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3165,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3191,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3219,11 +3004,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3243,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3271,11 +3052,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3295,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3323,11 +3100,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3347,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3375,11 +3148,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3399,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3425,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3451,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3477,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3503,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3529,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3555,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3581,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3607,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3633,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3661,11 +3412,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3685,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3713,11 +3460,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3737,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3763,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3789,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
-      </c>
-      <c r="G97" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3815,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3841,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3867,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3893,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3919,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3945,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3971,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3997,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4023,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4049,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
         <v>123</v>
-      </c>
-      <c r="H107" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4075,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4101,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4127,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4153,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4179,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4205,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
-      </c>
-      <c r="G113" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4231,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4257,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4283,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4311,11 +4012,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4335,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>147</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4361,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4387,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>147</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4413,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4439,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>147</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4465,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4491,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>147</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4517,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4543,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>147</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4571,11 +4252,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4595,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G128" t="s">
-        <v>159</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4621,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4647,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4675,11 +4348,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4699,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4727,11 +4396,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4751,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>166</v>
-      </c>
-      <c r="G134" t="s">
-        <v>167</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4777,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4803,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>166</v>
-      </c>
-      <c r="G136" t="s">
-        <v>167</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4829,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4855,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
-      </c>
-      <c r="G138" t="s">
-        <v>167</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4881,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4907,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
-      </c>
-      <c r="G140" t="s">
-        <v>167</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4933,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4961,11 +4612,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4985,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5011,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5037,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5063,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5089,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5115,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5141,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5167,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5193,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5219,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5245,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5271,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5297,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5325,11 +4948,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5349,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5375,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5401,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
-      </c>
-      <c r="G159" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5427,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5453,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
-      </c>
-      <c r="G161" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5479,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5505,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
-      </c>
-      <c r="G163" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5531,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5557,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5583,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5609,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5635,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5661,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>191</v>
-      </c>
-      <c r="G169" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5687,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5713,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5739,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5765,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" t="s">
+        <v>175</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>192</v>
-      </c>
-      <c r="H173" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5791,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5819,11 +5404,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5843,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>191</v>
-      </c>
-      <c r="G176" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5871,11 +5452,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5895,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>191</v>
-      </c>
-      <c r="G178" t="s">
-        <v>192</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5923,11 +5500,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5947,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>216</v>
-      </c>
-      <c r="G180" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5973,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5999,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>216</v>
-      </c>
-      <c r="G182" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6025,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6051,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G184" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6079,11 +5644,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6103,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>224</v>
-      </c>
-      <c r="G186" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6129,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6155,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>224</v>
-      </c>
-      <c r="G188" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6181,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6207,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>224</v>
-      </c>
-      <c r="G190" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6233,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6259,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>224</v>
-      </c>
-      <c r="G192" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6287,11 +5836,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6311,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>234</v>
-      </c>
-      <c r="G194" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6337,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6363,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>234</v>
-      </c>
-      <c r="G196" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6391,11 +5932,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6415,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>234</v>
-      </c>
-      <c r="G198" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6443,11 +5980,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6467,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>234</v>
-      </c>
-      <c r="G200" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6495,11 +6028,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6519,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>234</v>
-      </c>
-      <c r="G202" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6547,11 +6076,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6571,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G204" t="s">
-        <v>235</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6599,11 +6124,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6623,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>248</v>
-      </c>
-      <c r="G206" t="s">
-        <v>249</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6649,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6675,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>248</v>
-      </c>
-      <c r="G208" t="s">
-        <v>249</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6701,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6727,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>248</v>
-      </c>
-      <c r="G210" t="s">
-        <v>249</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6753,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6779,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>248</v>
-      </c>
-      <c r="G212" t="s">
-        <v>249</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6805,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6831,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>248</v>
-      </c>
-      <c r="G214" t="s">
-        <v>249</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6859,11 +6364,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6883,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>260</v>
-      </c>
-      <c r="G216" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6909,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6935,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>260</v>
-      </c>
-      <c r="G218" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6961,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6987,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>260</v>
-      </c>
-      <c r="G220" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7013,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7039,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>260</v>
-      </c>
-      <c r="G222" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7065,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7091,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>260</v>
-      </c>
-      <c r="G224" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7117,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7143,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>260</v>
-      </c>
-      <c r="G226" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7169,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7195,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>260</v>
-      </c>
-      <c r="G228" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7221,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7247,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>260</v>
-      </c>
-      <c r="G230" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7273,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7299,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>260</v>
-      </c>
-      <c r="G232" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7325,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7351,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7377,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>260</v>
-      </c>
-      <c r="G235" t="s">
-        <v>261</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7403,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7431,11 +6892,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7455,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>284</v>
-      </c>
-      <c r="G238" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7481,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7507,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>284</v>
-      </c>
-      <c r="G240" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7533,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7559,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>284</v>
-      </c>
-      <c r="G242" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7585,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7611,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>284</v>
-      </c>
-      <c r="G244" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7637,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7663,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>284</v>
-      </c>
-      <c r="G246" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7689,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7715,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>284</v>
-      </c>
-      <c r="G248" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7741,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7767,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>284</v>
-      </c>
-      <c r="G250" t="s">
-        <v>285</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7793,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7821,11 +7252,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7845,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7873,11 +7300,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
